--- a/TableOrigin/110_Character.xlsx
+++ b/TableOrigin/110_Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEE5AFA-B004-4106-AC94-C150163DEF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B82DE-DCE7-4E61-A75E-343F0088C8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="615" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="960" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>CriChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScaleX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScaleY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -400,7 +416,7 @@
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -422,8 +438,14 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,10 +465,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>11000001</v>
       </c>
@@ -457,19 +485,25 @@
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0.1</v>
       </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11010001</v>
       </c>
@@ -480,16 +514,22 @@
         <v>100</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TableOrigin/110_Character.xlsx
+++ b/TableOrigin/110_Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B82DE-DCE7-4E61-A75E-343F0088C8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6322BE6-02FF-48C4-9930-387BBC7380E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="960" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3645" yWindow="480" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,22 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimatorName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -414,9 +430,10 @@
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -444,8 +461,11 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +493,11 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>11000001</v>
       </c>
@@ -502,8 +525,11 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11010001</v>
       </c>
@@ -530,6 +556,9 @@
       </c>
       <c r="I4" s="1">
         <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TableOrigin/110_Character.xlsx
+++ b/TableOrigin/110_Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6322BE6-02FF-48C4-9930-387BBC7380E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55816449-C8A5-434A-A215-D43D396B7E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3645" yWindow="480" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="795" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,11 +83,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goblin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AnimatorName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECharacterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Goblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,24 +440,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,10 +488,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +525,11 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>11000001</v>
       </c>
@@ -525,11 +557,14 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11010001</v>
       </c>
@@ -557,8 +592,46 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>11010002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>91010003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TableOrigin/110_Character.xlsx
+++ b/TableOrigin/110_Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55816449-C8A5-434A-A215-D43D396B7E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF4A27D-0314-42CC-B4E3-A1908EF19420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="795" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="615" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,11 +107,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_Goblin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obstacle_Fire</t>
+    <t>Monster_DinoBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_DinoRed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_DinoGreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_DinoYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_FireOrange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_FireBlue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +471,7 @@
     <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,7 +585,7 @@
         <v>11010001</v>
       </c>
       <c r="B4" s="1">
-        <v>91010002</v>
+        <v>91011001</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
@@ -604,10 +620,10 @@
         <v>11010002</v>
       </c>
       <c r="B5" s="1">
-        <v>91010003</v>
+        <v>91011002</v>
       </c>
       <c r="C5" s="1">
-        <v>999999999</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -631,6 +647,146 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>11010003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>91011003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>11010004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>91011004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>11020001</v>
+      </c>
+      <c r="B8" s="1">
+        <v>91012001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>11020002</v>
+      </c>
+      <c r="B9" s="1">
+        <v>91012002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TableOrigin/110_Character.xlsx
+++ b/TableOrigin/110_Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF4A27D-0314-42CC-B4E3-A1908EF19420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE3F1D-5F44-4FA7-8413-05F67C26A65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="615" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
